--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ET6.0\ET-EUI2\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56511348-6CE0-4655-AD02-8A2CFC40F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0A946-D15D-40CF-8D02-A163A4480251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>#</t>
   </si>
@@ -58,12 +58,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>米克尔</t>
-  </si>
-  <si>
-    <t>带有强力攻击技能</t>
-  </si>
-  <si>
     <t>攻击</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -81,10 +75,6 @@
   </si>
   <si>
     <t>BurNing</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷达</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -224,10 +214,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>notail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>回合开始，乙方场上单位回血1点，</t>
     </r>
@@ -285,6 +271,14 @@
   </si>
   <si>
     <t>典狱长：锁定一张卡，双方都无法攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达，fram时获取闪避</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,9 +369,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J22"/>
+  <dimension ref="C2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -737,10 +728,10 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.3">
@@ -760,11 +751,11 @@
       <c r="H4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>17</v>
+      <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.3">
@@ -798,23 +789,20 @@
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1">
-        <v>178</v>
-      </c>
       <c r="J6" s="1">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.3">
@@ -824,20 +812,20 @@
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>44</v>
+      <c r="F7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.3">
@@ -847,20 +835,20 @@
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>45</v>
+      <c r="F8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.3">
@@ -870,20 +858,20 @@
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="F9" s="1">
-        <v>430</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>46</v>
+      <c r="F9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="I9" s="1">
-        <v>9</v>
-      </c>
       <c r="J9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="3:10" x14ac:dyDescent="0.3">
@@ -893,17 +881,17 @@
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>41</v>
+      <c r="F10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
@@ -916,20 +904,20 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>19</v>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H11" s="1">
         <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.3">
@@ -939,20 +927,20 @@
       <c r="D12" s="1">
         <v>1</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>21</v>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:10" x14ac:dyDescent="0.3">
@@ -962,20 +950,20 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H13" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J13" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:10" x14ac:dyDescent="0.3">
@@ -985,20 +973,20 @@
       <c r="D14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>23</v>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H14" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.3">
@@ -1008,11 +996,11 @@
       <c r="D15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>24</v>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1031,20 +1019,20 @@
       <c r="D16" s="1">
         <v>1</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>29</v>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="H16" s="1">
         <v>3</v>
       </c>
       <c r="I16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
@@ -1054,17 +1042,17 @@
       <c r="D17" s="1">
         <v>1</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="G17" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="H17" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1">
         <v>5</v>
@@ -1077,20 +1065,20 @@
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>36</v>
+      <c r="F18" s="1">
+        <v>430</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
@@ -1100,17 +1088,17 @@
       <c r="D19" s="1">
         <v>1</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>38</v>
+      <c r="F19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>46</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1">
         <v>10</v>
@@ -1123,20 +1111,20 @@
       <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>40</v>
+      <c r="F20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
         <v>5</v>
       </c>
-      <c r="I20" s="1">
-        <v>4</v>
-      </c>
       <c r="J20" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
@@ -1146,14 +1134,14 @@
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>43</v>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1">
         <v>3</v>
@@ -1169,19 +1157,134 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>48</v>
+      <c r="F22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="H22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
       <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C24" s="1">
+        <v>1019</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>6</v>
+      </c>
+      <c r="J24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>5</v>
+      </c>
+      <c r="J25" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="1">
+        <v>5</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H27" s="1">
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
         <v>10</v>
       </c>
     </row>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ET6.0\ET-EUI2\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC0A946-D15D-40CF-8D02-A163A4480251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C80B7-B56F-4ABD-868E-D88A3796402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="3570" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
   <si>
     <t>#</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
@@ -82,22 +79,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>仙人模式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>满瓶增益，死亡后减益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>减buff，死亡后增益</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>上帝降临，毁灭除OG5人组外所有单位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Kaka</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,27 +95,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>齐心协力，友方攻击防御+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1，OG5人组加2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SanSheng</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>缘定今生，选择一个单位，若为敌方，己方死亡，则敌方死亡，若为友方，友方死亡，代替死亡，血量为1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -154,10 +115,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>YYF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Zhou</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -166,91 +123,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>裤裆掏钱，加快fram速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Universe</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>回音环绕，对敌方造成单位数量伤害，若场上纯在P</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>DD，则加2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ppd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>敌方无法回血，若乙方场上纯在Universe，敌方小于等于</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>20%血量死亡，敌方血量总数小于5不生效</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对CARRY，敌方位置为1的英雄无法攻击</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>回合开始，乙方场上单位回血1点，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>OG5人组单位回血2点</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石佛，嘲讽，受到伤害-1，当我方单位小于敌方则-2,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方防御塔造成伤害+1，绝境翻盘，当我方防御塔血量总数小于敌方，则我方单位对敌方防御塔造成伤害+2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>高歌猛进</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，若我方单位大于敌方，则攻击力翻倍</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -278,7 +155,238 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>雷达，fram时获取闪避</t>
+    <t>上帝降临，毁灭所有单位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始，乙方场上单位回血1/2/3点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对CARRY，敌方位置为1的英雄降低攻击血量2/4/6点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>link</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷达，fram时获取20%/40%/60%闪避</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人模式，需要手动开启，开启后攻击血量翻倍回合结束死亡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灌装魔瓶，指定单位获得+1/2/3攻击血量，死亡后减益攻击血量-1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有我受伤的世界，上场后队友攻击血量-1，死亡后队友攻击血量+2/3/4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>缘定今生，选择一个单位，若为敌方，己方死亡，则敌方死亡，若为友方，友方死亡，代替死亡，血量为1/4/7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>裤裆掏钱，加快fram速度2/3/4倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>齐心协力，友方攻击+1/2/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方获取血量降低，1/2/3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永不失误,攻击30%/20%/10%攻击友方单位，无视闪避</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiao8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>八音盒：在八音盒的鼓舞下，友方获得血量提升1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/2/3点</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nisha</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTZ</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>上山，攻击敌人后不会受到伤害，被敌人攻击时获取20%/30%/50%闪避</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二，每过2回合之后攻击获得2点攻击，每次升级获取2点攻击2点血量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>fy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大魔导师：复制敌方一名单位技能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hyhy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石抛物：眩晕敌方单位一回合，造成3点伤害--TI1freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵能之刃：攻击单位附近的一名单位受到同样的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>娜迦一族：选择一项能力 石化敌方单位造成物理伤害增加1/2/3一回合，歌唱敌方单位一回合不能进行攻击也不能被攻击</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dendi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>泉水钩：秒杀一名敌方单位--TI3freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ohaiyo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>They're all dead：</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万缠绕：打断敌方单位TP，如果S4在场并禁止敌方TP，在敌方回合可发动--TI3freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>One7</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿轮禁锢 ：只能攻击bOne7，受到伤害减少1/2/3--TI4freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地：对敌方防御塔造成伤害提高1/2/3，可随时攻击敌方防御塔--TI3freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD：每过两回合，Mu的攻击血量翻倍，下次则减半，只影响基础攻击血量，向下取正</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wings成员：当Wings5名队员同时在场时，获得游戏胜利</t>
+  </si>
+  <si>
+    <t>Wings成员：当Wings5名队员同时在场时，获得游戏胜利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faith_bian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>iceice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -683,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:J27"/>
+  <dimension ref="C2:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -696,19 +804,19 @@
     <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="41.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="78.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -728,13 +836,14 @@
         <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -745,44 +854,46 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -790,10 +901,10 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1">
         <v>5</v>
@@ -805,7 +916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -813,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1">
         <v>1</v>
@@ -828,7 +939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -836,10 +947,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H8" s="1">
         <v>3</v>
@@ -851,442 +962,644 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J9" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>430</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>9</v>
+      </c>
+      <c r="J11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C11" s="1">
-        <v>1006</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
-        <v>1007</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>8</v>
-      </c>
-      <c r="J12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>1008</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>1009</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>8</v>
-      </c>
-      <c r="J14" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>1010</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>8</v>
-      </c>
-      <c r="J15" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <v>1011</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="H16" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <v>430</v>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J19" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="D20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="I20" s="1">
-        <v>5</v>
-      </c>
       <c r="J20" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <v>2</v>
       </c>
       <c r="J22" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <v>1019</v>
+        <v>1028</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H24" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
-        <v>1020</v>
+        <v>1029</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>34</v>
+      <c r="F25" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="H25" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J25" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="H26" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
-        <v>1022</v>
+        <v>1031</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>1032</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H28" s="1">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>1033</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1">
+        <v>7</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>1034</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="1">
+        <v>3</v>
+      </c>
+      <c r="I30" s="1">
         <v>4</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J30" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>1035</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="1">
         <v>2</v>
       </c>
-      <c r="J27" s="1">
-        <v>10</v>
-      </c>
+      <c r="I31" s="1">
+        <v>6</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>1036</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>1037</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>1038</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34" s="1">
+        <v>3</v>
+      </c>
+      <c r="I34" s="1">
+        <v>6</v>
+      </c>
+      <c r="J34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>1039</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="1">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1">
+        <v>6</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>1040</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5</v>
+      </c>
+      <c r="I36" s="1">
+        <v>6</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ET6.0\ET-EUI2\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1C80B7-B56F-4ABD-868E-D88A3796402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549F1917-35E7-45AB-A631-746E96DBEAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="74">
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="81">
   <si>
     <t>Id</t>
   </si>
@@ -247,10 +244,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>上山，攻击敌人后不会受到伤害，被敌人攻击时获取20%/30%/50%闪避</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第二，每过2回合之后攻击获得2点攻击，每次升级获取2点攻击2点血量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -288,14 +281,6 @@
   </si>
   <si>
     <t>泉水钩：秒杀一名敌方单位--TI3freetoplay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ohaiyo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>They're all dead：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -343,10 +328,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>基地：对敌方防御塔造成伤害提高1/2/3，可随时攻击敌方防御塔--TI3freetoplay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>M</t>
     </r>
@@ -363,10 +344,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>CD：每过两回合，Mu的攻击血量翻倍，下次则减半，只影响基础攻击血量，向下取正</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Shadow</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -387,6 +364,58 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xnove</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ori</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹伤害40%/50%/60%，由敌方全体单位分摊，向下取整，最少1点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>chalice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从牌库随机召唤1/2/3名友军进入战场，（最大数量为战场空位）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择1名队友免疫沉默，免疫死亡1/2/3回合，自身免疫沉默</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1常驻2战吼3亡语4瞬发5抉择6主动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝境，当我方单位只剩下RTZ时，敌方有5名单位，则RTZ可以同时攻击5名单位，且攻击血量翻倍</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推进：对敌方防御塔造成伤害提高1/2/3，可随时攻击敌方防御塔--TI3freetoplay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD：每过1回合，Mu的攻击血量翻倍，下次则减半，只影响基础攻击血量，向下取正</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:K38"/>
+  <dimension ref="C2:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -803,97 +832,106 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="78.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="6" max="7" width="9.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="78.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="E2" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -901,22 +939,25 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="I6" s="1">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1">
         <v>3</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -924,22 +965,25 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -947,70 +991,79 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="1">
+        <v>19</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="1">
         <v>3</v>
       </c>
-      <c r="I8" s="1">
-        <v>2</v>
-      </c>
       <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="I9" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="G10" s="5">
+        <v>5</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
         <v>10</v>
       </c>
-      <c r="J10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1018,588 +1071,723 @@
       <c r="F11" s="1">
         <v>430</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="1">
-        <v>2</v>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="I11" s="1">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1">
         <v>9</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>6</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G13" s="5">
+        <v>6</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>6</v>
-      </c>
-      <c r="J12" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="1">
-        <v>1015</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G14" s="5">
+        <v>23</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="1">
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C14" s="1">
-        <v>1016</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="I14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G15" s="5">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="1">
-        <v>4</v>
-      </c>
-      <c r="I14" s="1">
-        <v>3</v>
-      </c>
-      <c r="J14" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C15" s="1">
-        <v>1017</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="I15" s="1">
+        <v>5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>2</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="1">
-        <v>5</v>
-      </c>
-      <c r="I15" s="1">
-        <v>2</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C16" s="1">
-        <v>1018</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="I16" s="1">
+        <v>5</v>
+      </c>
+      <c r="J16" s="1">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H16" s="1">
-        <v>5</v>
-      </c>
-      <c r="I16" s="1">
-        <v>2</v>
-      </c>
-      <c r="J16" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
-        <v>1019</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
       <c r="I17" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
+        <v>1014</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
+        <v>1015</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="5">
+        <v>12</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="1">
+        <v>1016</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="1">
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1">
         <v>3</v>
       </c>
-      <c r="I18" s="1">
-        <v>5</v>
-      </c>
-      <c r="J18" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
-        <v>1021</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1">
-        <v>4</v>
-      </c>
-      <c r="J19" s="1">
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
-        <v>1022</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>2</v>
-      </c>
-      <c r="J20" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="1">
-        <v>1023</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G21" s="5" t="s">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="1">
+        <v>1017</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="1">
-        <v>3</v>
-      </c>
-      <c r="I21" s="1">
-        <v>5</v>
-      </c>
-      <c r="J21" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="1">
-        <v>1024</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" s="1">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <v>1018</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="1">
-        <v>2</v>
-      </c>
-      <c r="I22" s="1">
-        <v>2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="1">
-        <v>1025</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23" s="1">
-        <v>1</v>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="I23" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J23" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="5">
+        <v>2</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5</v>
+      </c>
+      <c r="K24" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="1">
+        <v>1020</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G25" s="5">
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="1">
-        <v>4</v>
-      </c>
-      <c r="I24" s="1">
-        <v>5</v>
-      </c>
-      <c r="J24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="1">
-        <v>1029</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="1">
-        <v>1</v>
-      </c>
       <c r="I25" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J25" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
+        <v>1021</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C27" s="1">
+        <v>1022</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="5">
+        <v>14</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>1023</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="5">
+        <v>1</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="1">
+        <v>1</v>
+      </c>
+      <c r="J28" s="1">
+        <v>7</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3</v>
+      </c>
+      <c r="J29" s="1">
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>1025</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2</v>
+      </c>
+      <c r="J30" s="1">
+        <v>6</v>
+      </c>
+      <c r="K30" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>1026</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>1027</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="1">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>1028</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="1">
+        <v>3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>1029</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="1">
+        <v>4</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
         <v>1030</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="I26" s="1">
-        <v>5</v>
-      </c>
-      <c r="J26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="1">
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
         <v>1031</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="1">
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5</v>
+      </c>
+      <c r="J36" s="1">
+        <v>3</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
         <v>1032</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H28" s="1">
-        <v>2</v>
-      </c>
-      <c r="I28" s="1">
-        <v>5</v>
-      </c>
-      <c r="J28" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="1">
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>3</v>
+      </c>
+      <c r="K37" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C38" s="1">
         <v>1033</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
-      </c>
-      <c r="I29" s="1">
-        <v>7</v>
-      </c>
-      <c r="J29" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="1">
-        <v>1034</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="1">
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="1">
         <v>3</v>
       </c>
-      <c r="I30" s="1">
-        <v>4</v>
-      </c>
-      <c r="J30" s="1">
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="1">
-        <v>1035</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="1">
-        <v>2</v>
-      </c>
-      <c r="I31" s="1">
-        <v>6</v>
-      </c>
-      <c r="J31" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="1">
-        <v>1036</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="1">
-        <v>1</v>
-      </c>
-      <c r="I32" s="1">
-        <v>6</v>
-      </c>
-      <c r="J32" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C33" s="1">
-        <v>1037</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H33" s="1">
-        <v>2</v>
-      </c>
-      <c r="I33" s="1">
-        <v>6</v>
-      </c>
-      <c r="J33" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C34" s="1">
-        <v>1038</v>
-      </c>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H34" s="1">
-        <v>3</v>
-      </c>
-      <c r="I34" s="1">
-        <v>6</v>
-      </c>
-      <c r="J34" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="1">
-        <v>1039</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H35" s="1">
-        <v>4</v>
-      </c>
-      <c r="I35" s="1">
-        <v>6</v>
-      </c>
-      <c r="J35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="1">
-        <v>1040</v>
-      </c>
-      <c r="D36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="1">
-        <v>5</v>
-      </c>
-      <c r="I36" s="1">
-        <v>6</v>
-      </c>
-      <c r="J36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
